--- a/paper/Neurotron/Neurotron.xlsx
+++ b/paper/Neurotron/Neurotron.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hux/Bluenetics/Git/Neural/neural-study/paper/Neurotron/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ADE33BE-949F-DB42-8EA5-A190EE41F8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672D779F-B8C9-6A4D-97C9-0D09C12B3CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2980" yWindow="2160" windowWidth="28240" windowHeight="17240" xr2:uid="{96CDFF01-02CC-EC42-905F-8D15766AF32D}"/>
   </bookViews>
@@ -35,9 +35,89 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
+  <si>
+    <t>Basic Relationship</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>t+T</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Example 2: non-predictive, non-depressed </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Neurotron</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Example 1: predictive </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Neurotron</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Example 3: non-predictive depressed </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Neurotron</t>
+    </r>
+  </si>
+  <si>
+    <t>Example 4: unexited Neurotron</t>
+  </si>
+  <si>
+    <t>t-1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -45,19 +125,204 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -66,8 +331,68 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -83,6 +408,591 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>173649</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>20088</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="116378" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="Textfeld 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ED88BCA-B323-5D0C-19E9-C8E999B13521}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2340120" y="949761"/>
+              <a:ext cx="116378" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̂"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-AT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑢</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="de-DE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="Textfeld 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ED88BCA-B323-5D0C-19E9-C8E999B13521}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2340120" y="949761"/>
+              <a:ext cx="116378" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-AT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑢</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ̂</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-DE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>173649</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>20088</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="116378" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="Textfeld 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01B3FDD8-B199-BF48-819B-5B9A13A49C76}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1891884" y="816951"/>
+              <a:ext cx="116378" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̂"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-AT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑢</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="de-DE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="Textfeld 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01B3FDD8-B199-BF48-819B-5B9A13A49C76}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1891884" y="816951"/>
+              <a:ext cx="116378" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-AT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑢</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ̂</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-DE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>173649</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>20088</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="116378" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="Textfeld 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A3F436-D182-7F45-8E32-37CDDE4139FA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1891884" y="816951"/>
+              <a:ext cx="116378" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̂"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-AT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑢</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="de-DE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="Textfeld 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A3F436-D182-7F45-8E32-37CDDE4139FA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1891884" y="816951"/>
+              <a:ext cx="116378" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-AT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑢</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ̂</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-DE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>173649</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>20088</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="116378" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="Textfeld 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFE02C95-395A-6346-B449-08349B1D7D23}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1891884" y="816951"/>
+              <a:ext cx="116378" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̂"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-AT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑢</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="de-DE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="Textfeld 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFE02C95-395A-6346-B449-08349B1D7D23}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1891884" y="816951"/>
+              <a:ext cx="116378" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-AT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑢</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ̂</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-DE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,12 +1292,506 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F9B967-481D-9B48-9F66-0DBD51A40DF4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="7" width="5.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <f>MIN(E6*C6+D6*(1-F6),1)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <f>MIN(E7*C7+D7*(1-F7),1)</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6">
+        <f>C7</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <f>E7</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <f>MIN(E8*C8+D8*(1-F8),1)</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <f>MIN(E13*C13+D13*(1-F13),1)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
+        <f>MIN(E14*C14+D14*(1-F14),1)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5">
+        <f>C14</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <f>E14</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <f>MIN(E15*C15+D15*(1-F15),1)</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+      <c r="G20" s="14">
+        <f>MIN(E20*C20+D20*(1-F20),1)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
+      <c r="G21" s="14">
+        <f>MIN(E21*C21+D21*(1-F21),1)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="5">
+        <f>C21</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8">
+        <f>E21</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7">
+        <f>MIN(E22*C22+D22*(1-F22),1)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
+        <v>1</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0</v>
+      </c>
+      <c r="G27" s="14">
+        <f>MIN(E27*C27+D27*(1-F27),1)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12">
+        <v>1</v>
+      </c>
+      <c r="F28" s="19">
+        <v>0</v>
+      </c>
+      <c r="G28" s="14">
+        <v>0</v>
+      </c>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
+      <c r="B29" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="5">
+        <f>C28</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1</v>
+      </c>
+      <c r="F29" s="20">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="16"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/paper/Neurotron/Neurotron.xlsx
+++ b/paper/Neurotron/Neurotron.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hux/Bluenetics/Git/Neural/neural-study/paper/Neurotron/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672D779F-B8C9-6A4D-97C9-0D09C12B3CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEB2684-7B93-D643-B694-E3B7F762990A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2980" yWindow="2160" windowWidth="28240" windowHeight="17240" xr2:uid="{96CDFF01-02CC-EC42-905F-8D15766AF32D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
   <si>
     <t>Basic Relationship</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>p</t>
   </si>
   <si>
     <r>
@@ -111,6 +108,15 @@
   </si>
   <si>
     <t>t-1</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -331,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -359,7 +365,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -391,6 +397,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -412,586 +424,50 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>173649</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>20088</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>86804</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="116378" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="Textfeld 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ED88BCA-B323-5D0C-19E9-C8E999B13521}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2340120" y="949761"/>
-              <a:ext cx="116378" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:acc>
-                      <m:accPr>
-                        <m:chr m:val="̂"/>
-                        <m:ctrlPr>
-                          <a:rPr lang="de-DE" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:accPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="de-AT" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑢</m:t>
-                        </m:r>
-                      </m:e>
-                    </m:acc>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="de-DE" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="Textfeld 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ED88BCA-B323-5D0C-19E9-C8E999B13521}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2340120" y="949761"/>
-              <a:ext cx="116378" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="de-AT" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑢</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> ̂</a:t>
-              </a:r>
-              <a:endParaRPr lang="de-DE" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>563779</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>82176</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Grafik 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1CED400-3117-FC21-AF70-81E02B9B3AD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5644444" y="1082882"/>
+          <a:ext cx="4348878" cy="3315634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>173649</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>20088</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="116378" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="Textfeld 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01B3FDD8-B199-BF48-819B-5B9A13A49C76}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1891884" y="816951"/>
-              <a:ext cx="116378" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:acc>
-                      <m:accPr>
-                        <m:chr m:val="̂"/>
-                        <m:ctrlPr>
-                          <a:rPr lang="de-DE" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:accPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="de-AT" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑢</m:t>
-                        </m:r>
-                      </m:e>
-                    </m:acc>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="de-DE" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="Textfeld 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01B3FDD8-B199-BF48-819B-5B9A13A49C76}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1891884" y="816951"/>
-              <a:ext cx="116378" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="de-AT" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑢</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> ̂</a:t>
-              </a:r>
-              <a:endParaRPr lang="de-DE" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>173649</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>20088</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="116378" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="Textfeld 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A3F436-D182-7F45-8E32-37CDDE4139FA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1891884" y="816951"/>
-              <a:ext cx="116378" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:acc>
-                      <m:accPr>
-                        <m:chr m:val="̂"/>
-                        <m:ctrlPr>
-                          <a:rPr lang="de-DE" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:accPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="de-AT" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑢</m:t>
-                        </m:r>
-                      </m:e>
-                    </m:acc>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="de-DE" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="Textfeld 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A3F436-D182-7F45-8E32-37CDDE4139FA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1891884" y="816951"/>
-              <a:ext cx="116378" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="de-AT" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑢</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> ̂</a:t>
-              </a:r>
-              <a:endParaRPr lang="de-DE" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>173649</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>20088</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="116378" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="Textfeld 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFE02C95-395A-6346-B449-08349B1D7D23}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1891884" y="816951"/>
-              <a:ext cx="116378" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:acc>
-                      <m:accPr>
-                        <m:chr m:val="̂"/>
-                        <m:ctrlPr>
-                          <a:rPr lang="de-DE" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:accPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="de-AT" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑢</m:t>
-                        </m:r>
-                      </m:e>
-                    </m:acc>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="de-DE" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="Textfeld 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFE02C95-395A-6346-B449-08349B1D7D23}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1891884" y="816951"/>
-              <a:ext cx="116378" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="de-AT" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑢</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> ̂</a:t>
-              </a:r>
-              <a:endParaRPr lang="de-DE" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1292,27 +768,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F9B967-481D-9B48-9F66-0DBD51A40DF4}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="7" width="5.83203125" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="2" max="8" width="5.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -1320,8 +796,9 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-    </row>
-    <row r="4" spans="1:8" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -1330,29 +807,35 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="11">
         <v>0</v>
@@ -1363,16 +846,19 @@
       <c r="E6" s="12">
         <v>1</v>
       </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="14">
-        <f>MIN(E6*C6+D6*(1-F6),1)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F6" s="23">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <f>MIN(E6*C6+D6*(1-G6),1)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="21" t="s">
         <v>1</v>
@@ -1386,16 +872,19 @@
       <c r="E7" s="12">
         <v>1</v>
       </c>
-      <c r="F7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14">
-        <f>MIN(E7*C7+D7*(1-F7),1)</f>
-        <v>1</v>
-      </c>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F7" s="23">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <f>MIN(E7*C7+D7*(1-G7),1)</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="22" t="s">
         <v>2</v>
@@ -1411,16 +900,19 @@
         <f>E7</f>
         <v>1</v>
       </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <f>MIN(E8*C8+D8*(1-F8),1)</f>
-        <v>1</v>
-      </c>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F8" s="24">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <f>MIN(E8*C8+D8*(1-G8),1)</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
@@ -1428,12 +920,13 @@
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9" s="18"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -1441,8 +934,9 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1451,29 +945,35 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E12" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="10">
         <v>0</v>
@@ -1484,16 +984,19 @@
       <c r="E13" s="12">
         <v>0</v>
       </c>
-      <c r="F13" s="13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14">
-        <f>MIN(E13*C13+D13*(1-F13),1)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F13" s="23">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <f>MIN(E13*C13+D13*(1-G13),1)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="21" t="s">
         <v>1</v>
@@ -1507,16 +1010,19 @@
       <c r="E14" s="12">
         <v>0</v>
       </c>
-      <c r="F14" s="13">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14">
-        <f>MIN(E14*C14+D14*(1-F14),1)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F14" s="23">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <f>MIN(E14*C14+D14*(1-G14),1)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="22" t="s">
         <v>2</v>
@@ -1532,16 +1038,19 @@
         <f>E14</f>
         <v>0</v>
       </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
-        <f>MIN(E15*C15+D15*(1-F15),1)</f>
-        <v>1</v>
-      </c>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F15" s="24">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7">
+        <f>MIN(E15*C15+D15*(1-G15),1)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
@@ -1549,12 +1058,13 @@
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H16" s="18"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -1562,8 +1072,9 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
-    </row>
-    <row r="18" spans="1:8" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -1572,29 +1083,35 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="4"/>
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E19" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="10">
         <v>0</v>
@@ -1605,16 +1122,19 @@
       <c r="E20" s="12">
         <v>0</v>
       </c>
-      <c r="F20" s="13">
-        <v>0</v>
-      </c>
-      <c r="G20" s="14">
-        <f>MIN(E20*C20+D20*(1-F20),1)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F20" s="23">
+        <v>1</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0</v>
+      </c>
+      <c r="H20" s="14">
+        <f>MIN(E20*C20+D20*(1-G20),1)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="21" t="s">
         <v>1</v>
@@ -1628,16 +1148,19 @@
       <c r="E21" s="12">
         <v>0</v>
       </c>
-      <c r="F21" s="13">
-        <v>0</v>
-      </c>
-      <c r="G21" s="14">
-        <f>MIN(E21*C21+D21*(1-F21),1)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F21" s="23">
+        <v>1</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0</v>
+      </c>
+      <c r="H21" s="14">
+        <f>MIN(E21*C21+D21*(1-G21),1)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="22" t="s">
         <v>2</v>
@@ -1653,16 +1176,19 @@
         <f>E21</f>
         <v>0</v>
       </c>
-      <c r="F22" s="9">
-        <v>1</v>
-      </c>
-      <c r="G22" s="7">
-        <f>MIN(E22*C22+D22*(1-F22),1)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F22" s="24">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <f>MIN(E22*C22+D22*(1-G22),1)</f>
+        <v>1</v>
+      </c>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
@@ -1670,12 +1196,13 @@
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="16"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H23" s="18"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -1683,8 +1210,9 @@
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="1:8" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="1:9" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -1693,29 +1221,35 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="4"/>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E26" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="16"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="16"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="10">
         <v>0</v>
@@ -1726,16 +1260,19 @@
       <c r="E27" s="12">
         <v>1</v>
       </c>
-      <c r="F27" s="13">
-        <v>0</v>
-      </c>
-      <c r="G27" s="14">
-        <f>MIN(E27*C27+D27*(1-F27),1)</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="16"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F27" s="23">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13">
+        <v>0</v>
+      </c>
+      <c r="H27" s="14">
+        <f>MIN(E27*C27+D27*(1-G27),1)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="16"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="21" t="s">
         <v>1</v>
@@ -1749,15 +1286,18 @@
       <c r="E28" s="12">
         <v>1</v>
       </c>
-      <c r="F28" s="19">
-        <v>0</v>
-      </c>
-      <c r="G28" s="14">
-        <v>0</v>
-      </c>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F28" s="23">
+        <v>0</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0</v>
+      </c>
+      <c r="H28" s="14">
+        <v>0</v>
+      </c>
+      <c r="I28" s="16"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="22" t="s">
         <v>2</v>
@@ -1772,15 +1312,18 @@
       <c r="E29" s="8">
         <v>1</v>
       </c>
-      <c r="F29" s="20">
-        <v>0</v>
-      </c>
-      <c r="G29" s="7">
-        <v>0</v>
-      </c>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F29" s="24">
+        <v>0</v>
+      </c>
+      <c r="G29" s="20">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="16"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
@@ -1788,7 +1331,8 @@
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
-      <c r="H30" s="16"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/paper/Neurotron/Neurotron.xlsx
+++ b/paper/Neurotron/Neurotron.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hux/Bluenetics/Git/Neural/neural-study/paper/Neurotron/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEB2684-7B93-D643-B694-E3B7F762990A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADE1BDF-48D1-D544-A008-DB23D107C46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="2160" windowWidth="28240" windowHeight="17240" xr2:uid="{96CDFF01-02CC-EC42-905F-8D15766AF32D}"/>
+    <workbookView xWindow="2980" yWindow="2160" windowWidth="28240" windowHeight="18300" xr2:uid="{96CDFF01-02CC-EC42-905F-8D15766AF32D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="16">
   <si>
     <t>Basic Relationship</t>
   </si>
   <si>
     <t>t</t>
-  </si>
-  <si>
-    <t>t+T</t>
   </si>
   <si>
     <t>u</t>
@@ -104,9 +101,6 @@
     </r>
   </si>
   <si>
-    <t>Example 4: unexited Neurotron</t>
-  </si>
-  <si>
     <t>t-1</t>
   </si>
   <si>
@@ -118,12 +112,24 @@
   <si>
     <t>b</t>
   </si>
+  <si>
+    <t>Example 4: unstimulated Neurotron</t>
+  </si>
+  <si>
+    <t>t+1</t>
+  </si>
+  <si>
+    <t>t+2</t>
+  </si>
+  <si>
+    <t>t+3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -155,13 +161,6 @@
     <font>
       <i/>
       <sz val="12"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
       <color theme="5"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -180,6 +179,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFD883FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -347,34 +360,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -387,10 +388,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -403,6 +404,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -411,6 +424,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD883FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -426,16 +444,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>323725</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>86804</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>124509</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12096</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>563779</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>82176</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>364564</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>7468</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -458,8 +476,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5644444" y="1082882"/>
+          <a:off x="6715228" y="3863599"/>
           <a:ext cx="4348878" cy="3315634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>58103</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>141574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>214333</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>124509</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Grafik 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFA23A42-C711-3AB4-6827-15B64D7F47FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5005293" y="2332947"/>
+          <a:ext cx="4265053" cy="1244634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>58104</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>193840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219547</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190914</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Grafik 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB85EE3D-967A-470F-773A-15567D7C112E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5005294" y="725082"/>
+          <a:ext cx="4270266" cy="1258773"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -768,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F9B967-481D-9B48-9F66-0DBD51A40DF4}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -786,553 +892,707 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" ht="5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="H5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="23">
+        <v>0</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <f>MIN(E6*C6+D6*(1-G6),1)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="23">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="23">
+        <v>1</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <f>MIN(E8*C8+D8*(1-G8),1)</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="23">
+        <v>1</v>
+      </c>
+      <c r="D9" s="21">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10">
+        <f>MIN(E9*C9+D9*(1-G9),1)</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="24">
+        <f>C7</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="22">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <f>E7</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <f>MIN(E10*C10+D10*(1-G10),1)</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="23">
+        <v>0</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
+        <f>MIN(E15*C15+D15*(1-G15),1)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="23">
+        <v>1</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="19">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <f>MIN(E16*C16+D16*(1-G16),1)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="23">
+        <v>1</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="19">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="10">
+        <f>MIN(E17*C17+D17*(1-G17),1)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="23">
+        <v>1</v>
+      </c>
+      <c r="D18" s="21">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10">
+        <f>MIN(E18*C18+D18*(1-G18),1)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="24">
+        <f>C16</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="22">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <f>E16</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="20">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="23">
+        <v>0</v>
+      </c>
+      <c r="D24" s="21">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="19">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
+        <f>MIN(E24*C24+D24*(1-G24),1)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="23">
+        <v>1</v>
+      </c>
+      <c r="D25" s="21">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="19">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <f>MIN(E25*C25+D25*(1-G25),1)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="24">
+        <f>C25</f>
+        <v>1</v>
+      </c>
+      <c r="D28" s="22">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6">
+        <f>E25</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="20">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <f>MIN(E28*C28+D28*(1-G28),1)</f>
+        <v>1</v>
+      </c>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:9" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="23">
+        <v>0</v>
+      </c>
+      <c r="D33" s="21">
+        <v>0</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1</v>
+      </c>
+      <c r="F33" s="19">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="10">
+        <f>MIN(E33*C33+D33*(1-G33),1)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="23">
+        <v>0</v>
+      </c>
+      <c r="D34" s="21">
+        <v>0</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1</v>
+      </c>
+      <c r="F34" s="19">
+        <v>0</v>
+      </c>
+      <c r="G34" s="15">
+        <v>0</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0</v>
+      </c>
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="12"/>
+      <c r="B35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
-        <v>1</v>
-      </c>
-      <c r="F6" s="23">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="14">
-        <f>MIN(E6*C6+D6*(1-G6),1)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="11">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12">
-        <v>1</v>
-      </c>
-      <c r="F7" s="23">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14">
-        <f>MIN(E7*C7+D7*(1-G7),1)</f>
-        <v>1</v>
-      </c>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6">
-        <f>C7</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <f>E7</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="24">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <f>MIN(E8*C8+D8*(1-G8),1)</f>
-        <v>1</v>
-      </c>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" spans="1:9" ht="5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0</v>
-      </c>
-      <c r="F13" s="23">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14">
-        <f>MIN(E13*C13+D13*(1-G13),1)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="10">
-        <v>1</v>
-      </c>
-      <c r="D14" s="11">
-        <v>0</v>
-      </c>
-      <c r="E14" s="12">
-        <v>0</v>
-      </c>
-      <c r="F14" s="23">
-        <v>0</v>
-      </c>
-      <c r="G14" s="13">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14">
-        <f>MIN(E14*C14+D14*(1-G14),1)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="5">
-        <f>C14</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <f>E14</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="24">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7">
-        <f>MIN(E15*C15+D15*(1-G15),1)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="16"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-    </row>
-    <row r="18" spans="1:9" ht="5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="10">
-        <v>0</v>
-      </c>
-      <c r="D20" s="11">
-        <v>0</v>
-      </c>
-      <c r="E20" s="12">
-        <v>0</v>
-      </c>
-      <c r="F20" s="23">
-        <v>1</v>
-      </c>
-      <c r="G20" s="13">
-        <v>0</v>
-      </c>
-      <c r="H20" s="14">
-        <f>MIN(E20*C20+D20*(1-G20),1)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="16"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="10">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0</v>
-      </c>
-      <c r="F21" s="23">
-        <v>1</v>
-      </c>
-      <c r="G21" s="13">
-        <v>0</v>
-      </c>
-      <c r="H21" s="14">
-        <f>MIN(E21*C21+D21*(1-G21),1)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="5">
-        <f>C21</f>
-        <v>1</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="8">
-        <f>E21</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="24">
-        <v>1</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
-        <f>MIN(E22*C22+D22*(1-G22),1)</f>
-        <v>1</v>
-      </c>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" spans="1:9" ht="5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="16"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="10">
-        <v>0</v>
-      </c>
-      <c r="D27" s="11">
-        <v>0</v>
-      </c>
-      <c r="E27" s="12">
-        <v>1</v>
-      </c>
-      <c r="F27" s="23">
-        <v>0</v>
-      </c>
-      <c r="G27" s="13">
-        <v>0</v>
-      </c>
-      <c r="H27" s="14">
-        <f>MIN(E27*C27+D27*(1-G27),1)</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="16"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="10">
-        <v>0</v>
-      </c>
-      <c r="D28" s="11">
-        <v>0</v>
-      </c>
-      <c r="E28" s="12">
-        <v>1</v>
-      </c>
-      <c r="F28" s="23">
-        <v>0</v>
-      </c>
-      <c r="G28" s="19">
-        <v>0</v>
-      </c>
-      <c r="H28" s="14">
-        <v>0</v>
-      </c>
-      <c r="I28" s="16"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="5">
-        <f>C28</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="6">
-        <v>0</v>
-      </c>
-      <c r="E29" s="8">
-        <v>1</v>
-      </c>
-      <c r="F29" s="24">
-        <v>0</v>
-      </c>
-      <c r="G29" s="20">
-        <v>0</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="16"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="16"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="12"/>
+      <c r="B36" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="24">
+        <f>C34</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="22">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1</v>
+      </c>
+      <c r="F37" s="20">
+        <v>0</v>
+      </c>
+      <c r="G37" s="16">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="12"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/paper/Neurotron/Neurotron.xlsx
+++ b/paper/Neurotron/Neurotron.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hux/Bluenetics/Git/Neural/neural-study/paper/Neurotron/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADE1BDF-48D1-D544-A008-DB23D107C46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED652B7E-3A2D-2C4F-BB7E-DBAAC0D1EB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2980" yWindow="2160" windowWidth="28240" windowHeight="18300" xr2:uid="{96CDFF01-02CC-EC42-905F-8D15766AF32D}"/>
   </bookViews>
@@ -53,13 +53,37 @@
     <t>y</t>
   </si>
   <si>
+    <t>t-1</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>t+1</t>
+  </si>
+  <si>
+    <t>t+2</t>
+  </si>
+  <si>
+    <t>t+3</t>
+  </si>
+  <si>
+    <t>Example 4: predictive unstimulated Neurotron</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Example 2: non-predictive, non-depressed </t>
+      <t xml:space="preserve">Example 1: predictive, stimulated </t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -70,12 +94,12 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Example 1: predictive </t>
+      <t xml:space="preserve">Example 2: non-predictive, non-depressed </t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -91,7 +115,7 @@
     <r>
       <rPr>
         <i/>
-        <sz val="12"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -100,36 +124,12 @@
       <t>Neurotron</t>
     </r>
   </si>
-  <si>
-    <t>t-1</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Example 4: unstimulated Neurotron</t>
-  </si>
-  <si>
-    <t>t+1</t>
-  </si>
-  <si>
-    <t>t+2</t>
-  </si>
-  <si>
-    <t>t+3</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,14 +175,6 @@
     <font>
       <i/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
       <color rgb="FFD883FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -193,6 +185,21 @@
       <color rgb="FF0070C0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -350,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -406,18 +413,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -444,50 +452,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>124509</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>12096</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>364564</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>7468</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Grafik 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1CED400-3117-FC21-AF70-81E02B9B3AD8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6715228" y="3863599"/>
-          <a:ext cx="4348878" cy="3315634"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>58103</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -497,7 +461,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>214333</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>124509</xdr:rowOff>
+      <xdr:rowOff>61009</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -513,7 +477,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -541,7 +505,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>219547</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>190914</xdr:rowOff>
+      <xdr:rowOff>127414</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -557,7 +521,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -566,6 +530,94 @@
         <a:xfrm>
           <a:off x="5005294" y="725082"/>
           <a:ext cx="4270266" cy="1258773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>16602</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80665</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>188041</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>102512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Grafik 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C709FFDB-E8E7-C4A5-EB1D-60E512167F9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4963792" y="3932168"/>
+          <a:ext cx="4280262" cy="1347047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>41503</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>167207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>157712</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104753</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Grafik 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E55382BE-EAC3-D34E-2C62-D74A61CF5EDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4988693" y="5678841"/>
+          <a:ext cx="4225032" cy="1262745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -874,27 +926,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F9B967-481D-9B48-9F66-0DBD51A40DF4}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="8" width="5.83203125" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="12" t="s">
-        <v>6</v>
+      <c r="B3" s="25" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -904,7 +972,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -915,33 +983,33 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" s="23">
         <v>0</v>
@@ -964,7 +1032,7 @@
       </c>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="17" t="s">
         <v>1</v>
@@ -989,10 +1057,10 @@
       </c>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" s="23">
         <v>1</v>
@@ -1015,10 +1083,10 @@
       </c>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C9" s="23">
         <v>1</v>
@@ -1041,10 +1109,10 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C10" s="24">
         <f>C7</f>
@@ -1069,7 +1137,7 @@
       </c>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
@@ -1080,10 +1148,10 @@
       <c r="H11" s="14"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
-      <c r="B12" s="12" t="s">
-        <v>5</v>
+      <c r="B12" s="25" t="s">
+        <v>14</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -1093,7 +1161,7 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -1104,33 +1172,33 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>4</v>
       </c>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" s="23">
         <v>0</v>
@@ -1153,7 +1221,7 @@
       </c>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="17" t="s">
         <v>1</v>
@@ -1182,7 +1250,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C17" s="23">
         <v>1</v>
@@ -1208,7 +1276,7 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C18" s="23">
         <v>1</v>
@@ -1234,7 +1302,7 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C19" s="24">
         <f>C16</f>
@@ -1269,10 +1337,10 @@
       <c r="H20" s="14"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
-      <c r="B21" s="12" t="s">
-        <v>7</v>
+      <c r="B21" s="25" t="s">
+        <v>15</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -1300,16 +1368,16 @@
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>4</v>
@@ -1319,7 +1387,7 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24" s="23">
         <v>0</v>
@@ -1371,33 +1439,57 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="C26" s="23">
+        <v>1</v>
+      </c>
+      <c r="D26" s="21">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="19">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0</v>
+      </c>
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="C27" s="23">
+        <v>1</v>
+      </c>
+      <c r="D27" s="21">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="19">
+        <v>1</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C28" s="24">
         <f>C25</f>
@@ -1417,8 +1509,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="5">
-        <f>MIN(E28*C28+D28*(1-G28),1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="12"/>
     </row>
@@ -1433,9 +1524,9 @@
       <c r="H29" s="14"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="25" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="12"/>
@@ -1464,16 +1555,16 @@
         <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>4</v>
@@ -1483,7 +1574,7 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C33" s="23">
         <v>0</v>
@@ -1534,33 +1625,57 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="C35" s="23">
+        <v>0</v>
+      </c>
+      <c r="D35" s="21">
+        <v>0</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1</v>
+      </c>
+      <c r="F35" s="19">
+        <v>0</v>
+      </c>
+      <c r="G35" s="15">
+        <v>0</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0</v>
+      </c>
       <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="B36" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="C36" s="23">
+        <v>0</v>
+      </c>
+      <c r="D36" s="21">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1</v>
+      </c>
+      <c r="F36" s="19">
+        <v>0</v>
+      </c>
+      <c r="G36" s="15">
+        <v>0</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0</v>
+      </c>
       <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="B37" s="18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C37" s="24">
         <f>C34</f>

--- a/paper/Neurotron/Neurotron.xlsx
+++ b/paper/Neurotron/Neurotron.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hux/Bluenetics/Git/Neural/neural-study/paper/Neurotron/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED652B7E-3A2D-2C4F-BB7E-DBAAC0D1EB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D92242-6AE9-874B-8A23-CF208E4E1AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="2160" windowWidth="28240" windowHeight="18300" xr2:uid="{96CDFF01-02CC-EC42-905F-8D15766AF32D}"/>
+    <workbookView xWindow="2980" yWindow="2140" windowWidth="28240" windowHeight="18300" xr2:uid="{96CDFF01-02CC-EC42-905F-8D15766AF32D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,41 +152,6 @@
       <family val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF00B050"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="5"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FFD883FF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -200,6 +165,54 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFD883FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -222,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -268,19 +281,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -357,35 +357,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -395,37 +374,55 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -929,7 +926,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -944,770 +941,770 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="23">
-        <v>0</v>
-      </c>
-      <c r="D6" s="21">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>1</v>
-      </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="10">
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
         <f>MIN(E6*C6+D6*(1-G6),1)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="23">
-        <v>1</v>
-      </c>
-      <c r="D7" s="21">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="19">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="23">
-        <v>1</v>
-      </c>
-      <c r="D8" s="21">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="19">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10">
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
         <f>MIN(E8*C8+D8*(1-G8),1)</f>
         <v>1</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="23">
-        <v>1</v>
-      </c>
-      <c r="D9" s="21">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10">
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1</v>
+      </c>
+      <c r="H9" s="16">
         <f>MIN(E9*C9+D9*(1-G9),1)</f>
         <v>1</v>
       </c>
-      <c r="I9" s="12"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="18">
         <f>C7</f>
         <v>1</v>
       </c>
-      <c r="D10" s="22">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="19">
         <f>E7</f>
         <v>1</v>
       </c>
       <c r="F10" s="20">
         <v>0</v>
       </c>
-      <c r="G10" s="7">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="G10" s="21">
+        <v>1</v>
+      </c>
+      <c r="H10" s="22">
         <f>MIN(E10*C10+D10*(1-G10),1)</f>
         <v>1</v>
       </c>
-      <c r="I10" s="12"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="12"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="12"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="23">
-        <v>0</v>
-      </c>
-      <c r="D15" s="21">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="19">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="10">
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="16">
         <f>MIN(E15*C15+D15*(1-G15),1)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="12"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="23">
-        <v>1</v>
-      </c>
-      <c r="D16" s="21">
-        <v>0</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="19">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="10">
+      <c r="A16" s="5"/>
+      <c r="B16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="12">
+        <v>1</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0</v>
+      </c>
+      <c r="H16" s="16">
         <f>MIN(E16*C16+D16*(1-G16),1)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="12"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="23">
-        <v>1</v>
-      </c>
-      <c r="D17" s="21">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="19">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="10">
+      <c r="C17" s="12">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0</v>
+      </c>
+      <c r="H17" s="16">
         <f>MIN(E17*C17+D17*(1-G17),1)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="12"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="23">
-        <v>1</v>
-      </c>
-      <c r="D18" s="21">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="19">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
-        <v>1</v>
-      </c>
-      <c r="H18" s="10">
+      <c r="C18" s="12">
+        <v>1</v>
+      </c>
+      <c r="D18" s="11">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0</v>
+      </c>
+      <c r="F18" s="14">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
+        <v>1</v>
+      </c>
+      <c r="H18" s="16">
         <f>MIN(E18*C18+D18*(1-G18),1)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="12"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="18">
         <f>C16</f>
         <v>1</v>
       </c>
-      <c r="D19" s="22">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="D19" s="17">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19">
         <f>E16</f>
         <v>0</v>
       </c>
       <c r="F19" s="20">
         <v>0</v>
       </c>
-      <c r="G19" s="7">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5">
-        <v>1</v>
-      </c>
-      <c r="I19" s="12"/>
+      <c r="G19" s="21">
+        <v>1</v>
+      </c>
+      <c r="H19" s="22">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="12"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" ht="5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="3"/>
       <c r="C23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I23" s="12"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="17" t="s">
+      <c r="A24" s="5"/>
+      <c r="B24" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="23">
-        <v>0</v>
-      </c>
-      <c r="D24" s="21">
-        <v>0</v>
-      </c>
-      <c r="E24" s="8">
-        <v>0</v>
-      </c>
-      <c r="F24" s="19">
-        <v>1</v>
-      </c>
-      <c r="G24" s="9">
-        <v>0</v>
-      </c>
-      <c r="H24" s="10">
+      <c r="C24" s="12">
+        <v>0</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14">
+        <v>1</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0</v>
+      </c>
+      <c r="H24" s="16">
         <f>MIN(E24*C24+D24*(1-G24),1)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="12"/>
+      <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="23">
-        <v>1</v>
-      </c>
-      <c r="D25" s="21">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8">
-        <v>0</v>
-      </c>
-      <c r="F25" s="19">
-        <v>1</v>
-      </c>
-      <c r="G25" s="9">
-        <v>0</v>
-      </c>
-      <c r="H25" s="10">
+      <c r="A25" s="5"/>
+      <c r="B25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="12">
+        <v>1</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="13">
+        <v>0</v>
+      </c>
+      <c r="F25" s="14">
+        <v>1</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0</v>
+      </c>
+      <c r="H25" s="16">
         <f>MIN(E25*C25+D25*(1-G25),1)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="12"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="17" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="23">
-        <v>1</v>
-      </c>
-      <c r="D26" s="21">
-        <v>0</v>
-      </c>
-      <c r="E26" s="8">
-        <v>0</v>
-      </c>
-      <c r="F26" s="19">
-        <v>1</v>
-      </c>
-      <c r="G26" s="9">
-        <v>0</v>
-      </c>
-      <c r="H26" s="10">
-        <v>0</v>
-      </c>
-      <c r="I26" s="12"/>
+      <c r="C26" s="12">
+        <v>1</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0</v>
+      </c>
+      <c r="E26" s="13">
+        <v>0</v>
+      </c>
+      <c r="F26" s="14">
+        <v>1</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+      <c r="H26" s="16">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="17" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="23">
-        <v>1</v>
-      </c>
-      <c r="D27" s="21">
-        <v>1</v>
-      </c>
-      <c r="E27" s="8">
-        <v>0</v>
-      </c>
-      <c r="F27" s="19">
-        <v>1</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0</v>
-      </c>
-      <c r="H27" s="10">
-        <v>0</v>
-      </c>
-      <c r="I27" s="12"/>
+      <c r="C27" s="12">
+        <v>1</v>
+      </c>
+      <c r="D27" s="11">
+        <v>1</v>
+      </c>
+      <c r="E27" s="13">
+        <v>0</v>
+      </c>
+      <c r="F27" s="14">
+        <v>1</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0</v>
+      </c>
+      <c r="H27" s="16">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="18" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="18">
         <f>C25</f>
         <v>1</v>
       </c>
-      <c r="D28" s="22">
-        <v>1</v>
-      </c>
-      <c r="E28" s="6">
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="19">
         <f>E25</f>
         <v>0</v>
       </c>
       <c r="F28" s="20">
         <v>1</v>
       </c>
-      <c r="G28" s="7">
-        <v>0</v>
-      </c>
-      <c r="H28" s="5">
-        <v>0</v>
-      </c>
-      <c r="I28" s="12"/>
+      <c r="G28" s="21">
+        <v>0</v>
+      </c>
+      <c r="H28" s="22">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="12"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="25" t="s">
+      <c r="A30" s="5"/>
+      <c r="B30" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:9" ht="5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="3"/>
       <c r="C32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="12"/>
+      <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="17" t="s">
+      <c r="A33" s="5"/>
+      <c r="B33" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="23">
-        <v>0</v>
-      </c>
-      <c r="D33" s="21">
-        <v>0</v>
-      </c>
-      <c r="E33" s="8">
-        <v>1</v>
-      </c>
-      <c r="F33" s="19">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9">
-        <v>0</v>
-      </c>
-      <c r="H33" s="10">
+      <c r="C33" s="12">
+        <v>0</v>
+      </c>
+      <c r="D33" s="11">
+        <v>0</v>
+      </c>
+      <c r="E33" s="13">
+        <v>1</v>
+      </c>
+      <c r="F33" s="14">
+        <v>0</v>
+      </c>
+      <c r="G33" s="15">
+        <v>0</v>
+      </c>
+      <c r="H33" s="16">
         <f>MIN(E33*C33+D33*(1-G33),1)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="12"/>
+      <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="23">
-        <v>0</v>
-      </c>
-      <c r="D34" s="21">
-        <v>0</v>
-      </c>
-      <c r="E34" s="8">
-        <v>1</v>
-      </c>
-      <c r="F34" s="19">
-        <v>0</v>
-      </c>
-      <c r="G34" s="15">
-        <v>0</v>
-      </c>
-      <c r="H34" s="10">
-        <v>0</v>
-      </c>
-      <c r="I34" s="12"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="12">
+        <v>0</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0</v>
+      </c>
+      <c r="E34" s="13">
+        <v>1</v>
+      </c>
+      <c r="F34" s="14">
+        <v>0</v>
+      </c>
+      <c r="G34" s="23">
+        <v>0</v>
+      </c>
+      <c r="H34" s="16">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="17" t="s">
+      <c r="A35" s="5"/>
+      <c r="B35" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="23">
-        <v>0</v>
-      </c>
-      <c r="D35" s="21">
-        <v>0</v>
-      </c>
-      <c r="E35" s="8">
-        <v>1</v>
-      </c>
-      <c r="F35" s="19">
-        <v>0</v>
-      </c>
-      <c r="G35" s="15">
-        <v>0</v>
-      </c>
-      <c r="H35" s="10">
-        <v>0</v>
-      </c>
-      <c r="I35" s="12"/>
+      <c r="C35" s="12">
+        <v>0</v>
+      </c>
+      <c r="D35" s="11">
+        <v>0</v>
+      </c>
+      <c r="E35" s="13">
+        <v>1</v>
+      </c>
+      <c r="F35" s="14">
+        <v>0</v>
+      </c>
+      <c r="G35" s="23">
+        <v>0</v>
+      </c>
+      <c r="H35" s="16">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="17" t="s">
+      <c r="A36" s="5"/>
+      <c r="B36" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="23">
-        <v>0</v>
-      </c>
-      <c r="D36" s="21">
-        <v>0</v>
-      </c>
-      <c r="E36" s="8">
-        <v>1</v>
-      </c>
-      <c r="F36" s="19">
-        <v>0</v>
-      </c>
-      <c r="G36" s="15">
-        <v>0</v>
-      </c>
-      <c r="H36" s="10">
-        <v>0</v>
-      </c>
-      <c r="I36" s="12"/>
+      <c r="C36" s="12">
+        <v>0</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0</v>
+      </c>
+      <c r="E36" s="13">
+        <v>1</v>
+      </c>
+      <c r="F36" s="14">
+        <v>0</v>
+      </c>
+      <c r="G36" s="23">
+        <v>0</v>
+      </c>
+      <c r="H36" s="16">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="18" t="s">
+      <c r="A37" s="5"/>
+      <c r="B37" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="18">
         <f>C34</f>
         <v>0</v>
       </c>
-      <c r="D37" s="22">
-        <v>0</v>
-      </c>
-      <c r="E37" s="6">
+      <c r="D37" s="17">
+        <v>0</v>
+      </c>
+      <c r="E37" s="19">
         <v>1</v>
       </c>
       <c r="F37" s="20">
         <v>0</v>
       </c>
-      <c r="G37" s="16">
-        <v>0</v>
-      </c>
-      <c r="H37" s="5">
-        <v>0</v>
-      </c>
-      <c r="I37" s="12"/>
+      <c r="G37" s="24">
+        <v>0</v>
+      </c>
+      <c r="H37" s="22">
+        <v>0</v>
+      </c>
+      <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="12"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
